--- a/data_new/newEmployees.xlsx
+++ b/data_new/newEmployees.xlsx
@@ -526,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>32263</v>
+        <v>32265</v>
       </c>
       <c r="I2" s="3" t="n">
         <v>44563</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>37405</v>
+        <v>37407</v>
       </c>
       <c r="I3" s="3" t="n">
         <v>44564</v>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>30509</v>
+        <v>30511</v>
       </c>
       <c r="I4" s="3" t="n">
         <v>44562</v>
@@ -649,7 +649,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>31844</v>
+        <v>31846</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>44565</v>
@@ -690,7 +690,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>38003</v>
+        <v>38005</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>44565</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>28490</v>
+        <v>28492</v>
       </c>
       <c r="I7" s="3" t="n">
         <v>44565</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>34969</v>
+        <v>34971</v>
       </c>
       <c r="I8" s="3" t="n">
         <v>44929</v>
@@ -813,7 +813,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>28127</v>
+        <v>28129</v>
       </c>
       <c r="I9" s="3" t="n">
         <v>44928</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>29504</v>
+        <v>29506</v>
       </c>
       <c r="I10" s="3" t="n">
         <v>44927</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>36333</v>
+        <v>36335</v>
       </c>
       <c r="I11" s="3" t="n">
         <v>44930</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>31286</v>
+        <v>31288</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>44929</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>37171</v>
+        <v>37173</v>
       </c>
       <c r="I13" s="3" t="n">
         <v>44927</v>
@@ -1018,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>36452</v>
+        <v>36454</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>44930</v>
@@ -1059,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>34237</v>
+        <v>34239</v>
       </c>
       <c r="I15" s="3" t="n">
         <v>44929</v>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>31806</v>
+        <v>31808</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>44929</v>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>27668</v>
+        <v>27670</v>
       </c>
       <c r="I17" s="3" t="n">
         <v>45294</v>
@@ -1182,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>36810</v>
+        <v>36812</v>
       </c>
       <c r="I18" s="3" t="n">
         <v>45294</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>37550</v>
+        <v>37552</v>
       </c>
       <c r="I19" s="3" t="n">
         <v>45293</v>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>29855</v>
+        <v>29857</v>
       </c>
       <c r="I20" s="3" t="n">
         <v>45294</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>33042</v>
+        <v>33044</v>
       </c>
       <c r="I21" s="3" t="n">
         <v>45294</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>30119</v>
+        <v>30121</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>45295</v>
@@ -1387,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>33399</v>
+        <v>33401</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>45658</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>29655</v>
+        <v>29657</v>
       </c>
       <c r="I24" s="3" t="n">
         <v>45661</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>30742</v>
+        <v>30744</v>
       </c>
       <c r="I25" s="3" t="n">
         <v>45661</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>34580</v>
+        <v>34582</v>
       </c>
       <c r="I26" s="3" t="n">
         <v>45659</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>31379</v>
+        <v>31381</v>
       </c>
       <c r="I27" s="3" t="n">
         <v>45661</v>

--- a/data_new/newEmployees.xlsx
+++ b/data_new/newEmployees.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,17 +503,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christine</t>
+          <t>Bryan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Hernandez</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -523,13 +523,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>32265</v>
+        <v>30054</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>44563</v>
+        <v>44565</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
@@ -544,35 +544,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Brittany</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sims</t>
+          <t>York</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>37407</v>
+        <v>37024</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>44564</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>44563</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>44649</v>
+      </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>L12</t>
@@ -585,12 +587,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicholas</t>
+          <t>Jack</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Johnson</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -605,13 +607,13 @@
         <v>1</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>30511</v>
+        <v>35451</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>44562</v>
+        <v>44563</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
@@ -626,30 +628,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Deborah</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Delgado</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>31846</v>
+        <v>37016</v>
       </c>
       <c r="I5" s="3" t="n">
         <v>44565</v>
@@ -657,7 +659,7 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>L09</t>
+          <t>L12</t>
         </is>
       </c>
     </row>
@@ -667,38 +669,38 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elizabeth</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Guzman</t>
+          <t>Cervantes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>38005</v>
+        <v>36792</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>44565</v>
+        <v>44562</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>L06</t>
+          <t>L12</t>
         </is>
       </c>
     </row>
@@ -708,17 +710,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vernon</t>
+          <t>Dawn</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Myers</t>
+          <t>Rangel</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -728,18 +730,18 @@
         <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>28492</v>
+        <v>33861</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>44565</v>
+        <v>44562</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>L06</t>
+          <t>L09</t>
         </is>
       </c>
     </row>
@@ -749,12 +751,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Thompson</t>
+          <t>Williams</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -763,7 +765,7 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
@@ -772,15 +774,17 @@
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>34971</v>
+        <v>33587</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>44929</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>44564</v>
+      </c>
+      <c r="J8" s="3" t="n">
+        <v>45149</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>L11</t>
         </is>
       </c>
     </row>
@@ -790,17 +794,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rebecca</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Harris</t>
+          <t>Erickson</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -813,15 +817,15 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>28129</v>
+        <v>28113</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>44928</v>
+        <v>44563</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>L03</t>
         </is>
       </c>
     </row>
@@ -831,21 +835,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Larry</t>
+          <t>Donna</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vaughan</t>
+          <t>Mills</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -854,15 +858,15 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>29506</v>
+        <v>35015</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>44927</v>
+        <v>44562</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>L12</t>
         </is>
       </c>
     </row>
@@ -872,38 +876,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sherry</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Stevenson</t>
+          <t>Osborne</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>36335</v>
+        <v>34604</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>44930</v>
+        <v>44565</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>L13</t>
+          <t>L10</t>
         </is>
       </c>
     </row>
@@ -913,12 +917,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Molly</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Bennett</t>
+          <t>Sanders</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -927,24 +931,24 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>31288</v>
+        <v>30074</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>44929</v>
+        <v>44562</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>L10</t>
+          <t>L07</t>
         </is>
       </c>
     </row>
@@ -954,38 +958,38 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Adam</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Smith</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>37173</v>
+        <v>27624</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>44927</v>
+        <v>44562</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>L03</t>
         </is>
       </c>
     </row>
@@ -995,12 +999,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Toni</t>
+          <t>Stacey</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Mcdonald</t>
+          <t>King</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1009,7 +1013,7 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1018,15 +1022,15 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>36454</v>
+        <v>35271</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>44930</v>
+        <v>44565</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>L05</t>
+          <t>L08</t>
         </is>
       </c>
     </row>
@@ -1036,21 +1040,21 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Luis</t>
+          <t>Kristen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Noble</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1059,15 +1063,17 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>34239</v>
+        <v>37651</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>44929</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>44563</v>
+      </c>
+      <c r="J15" s="3" t="n">
+        <v>45347</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>L02</t>
+          <t>L06</t>
         </is>
       </c>
     </row>
@@ -1077,38 +1083,38 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Carl</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Johnson</t>
+          <t>Potter</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>31808</v>
+        <v>30883</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>44929</v>
+        <v>44562</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>L05</t>
         </is>
       </c>
     </row>
@@ -1118,12 +1124,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Nicholas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Knight</t>
+          <t>Ross</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1132,24 +1138,26 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>27670</v>
+        <v>37847</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>44563</v>
+      </c>
+      <c r="J17" s="3" t="n">
+        <v>45868</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>L08</t>
+          <t>L07</t>
         </is>
       </c>
     </row>
@@ -1159,12 +1167,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kevin</t>
+          <t>Andrew</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Davidson</t>
+          <t>Murray</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1173,7 +1181,7 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -1182,15 +1190,17 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>36812</v>
+        <v>29371</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>44927</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>45148</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>L14</t>
+          <t>L13</t>
         </is>
       </c>
     </row>
@@ -1200,17 +1210,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Amber</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Choi</t>
+          <t>Delacruz</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E19" t="b">
@@ -1223,15 +1233,15 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>37552</v>
+        <v>34916</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>45293</v>
+        <v>44930</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>L15</t>
+          <t>L14</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1251,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Mike</t>
+          <t>Jonathan</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Campbell</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1255,24 +1265,26 @@
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>29857</v>
+        <v>34672</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>44927</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>45027</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>L04</t>
+          <t>L15</t>
         </is>
       </c>
     </row>
@@ -1282,12 +1294,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jones</t>
+          <t>Wise</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1296,24 +1308,24 @@
         </is>
       </c>
       <c r="E21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>33044</v>
+        <v>28386</v>
       </c>
       <c r="I21" s="3" t="n">
-        <v>45294</v>
+        <v>44927</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>L06</t>
+          <t>L10</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1335,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sara</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Prince</t>
+          <t>Miller</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1337,24 +1349,26 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>30121</v>
+        <v>35212</v>
       </c>
       <c r="I22" s="3" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>44930</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>45001</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>L06</t>
+          <t>L13</t>
         </is>
       </c>
     </row>
@@ -1364,12 +1378,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Benjamin</t>
+          <t>Raymond</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hayes</t>
+          <t>Pena</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1378,24 +1392,24 @@
         </is>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>33401</v>
+        <v>33942</v>
       </c>
       <c r="I23" s="3" t="n">
-        <v>45658</v>
+        <v>44929</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>L15</t>
+          <t>L10</t>
         </is>
       </c>
     </row>
@@ -1405,17 +1419,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Brandon</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sawyer</t>
+          <t>Freeman</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="E24" t="b">
@@ -1428,15 +1442,15 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>29657</v>
+        <v>34090</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>45661</v>
+        <v>44929</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>L05</t>
+          <t>L01</t>
         </is>
       </c>
     </row>
@@ -1446,38 +1460,38 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>John</t>
+          <t>Amy</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Smith</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>30744</v>
+        <v>30266</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>45661</v>
+        <v>44929</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>L11</t>
+          <t>L13</t>
         </is>
       </c>
     </row>
@@ -1487,12 +1501,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Matthew</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Mcbride</t>
+          <t>Hodges</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1504,21 +1518,23 @@
         <v>1</v>
       </c>
       <c r="F26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>34582</v>
+        <v>37758</v>
       </c>
       <c r="I26" s="3" t="n">
-        <v>45659</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>44928</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>45059</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>L02</t>
+          <t>L06</t>
         </is>
       </c>
     </row>
@@ -1528,17 +1544,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chris</t>
+          <t>Felicia</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>Escobar</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="E27" t="b">
@@ -1551,13 +1567,4541 @@
         <v>0</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>31381</v>
+        <v>35106</v>
       </c>
       <c r="I27" s="3" t="n">
-        <v>45661</v>
+        <v>44927</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>82</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Timothy</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>34500</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>83</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cody</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>House</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>29101</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>84</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Courtney</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Cherry</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>36194</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>85</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Hartman</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>38518</v>
+      </c>
+      <c r="I31" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J31" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>86</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sherri</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Juarez</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30253</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>87</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Kathy</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Hernandez</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>36729</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>88</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>John</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Jones</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>30038</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>89</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Christina</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Evans</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>27675</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>44930</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>90</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ayala</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>30304</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>91</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Ryan</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Sanchez</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>29478</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>92</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Booth</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+      <c r="F38" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>28580</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>93</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Andrade</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+      <c r="F39" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>28574</v>
+      </c>
+      <c r="I39" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>94</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Kenneth</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Knight</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>37008</v>
+      </c>
+      <c r="I40" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>95</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Joshua</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Peterson</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>37625</v>
+      </c>
+      <c r="I41" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>96</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Mills</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>28731</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J42" s="3" t="n">
+        <v>45597</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>97</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Corey</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Brady</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
+      <c r="F43" t="b">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>28543</v>
+      </c>
+      <c r="I43" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>98</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Massey</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>29787</v>
+      </c>
+      <c r="I44" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J44" s="3" t="n">
+        <v>45395</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>99</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Roger</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>30011</v>
+      </c>
+      <c r="I45" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J45" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>100</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ibarra</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>37282</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>101</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Torres</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>30140</v>
+      </c>
+      <c r="I47" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>102</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>28170</v>
+      </c>
+      <c r="I48" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>103</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Erik</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Russo</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>34913</v>
+      </c>
+      <c r="I49" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>104</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Jenna</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Bates</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="b">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>34949</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>44928</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>105</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Hill</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="b">
+        <v>0</v>
+      </c>
+      <c r="G51" t="b">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>28000</v>
+      </c>
+      <c r="I51" s="3" t="n">
+        <v>44930</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>106</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Martha</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="b">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>35207</v>
+      </c>
+      <c r="I52" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>107</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Jesse</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Rowe</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
+      <c r="F53" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>36136</v>
+      </c>
+      <c r="I53" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>108</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Angel</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>36383</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>109</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Hess</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>28315</v>
+      </c>
+      <c r="I55" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>110</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Morgan</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>30576</v>
+      </c>
+      <c r="I56" s="3" t="n">
+        <v>44929</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Theresa</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Stevens</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>33276</v>
+      </c>
+      <c r="I57" s="3" t="n">
+        <v>44930</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>L10</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>112</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Nguyen</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>38675</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>113</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Griffin</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>37606</v>
+      </c>
+      <c r="I59" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>114</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Tammy</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>37212</v>
+      </c>
+      <c r="I60" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J60" s="3" t="n">
+        <v>45908</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>115</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Luna</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="b">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>32805</v>
+      </c>
+      <c r="I61" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>116</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>35356</v>
+      </c>
+      <c r="I62" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J62" s="3" t="n">
+        <v>45461</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>117</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Eaton</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>33036</v>
+      </c>
+      <c r="I63" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>118</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Charles</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="b">
+        <v>1</v>
+      </c>
+      <c r="G64" t="b">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>37886</v>
+      </c>
+      <c r="I64" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>119</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Kevin</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Andrews</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="b">
+        <v>0</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>37894</v>
+      </c>
+      <c r="I65" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>120</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Ashley</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Hopkins</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>29831</v>
+      </c>
+      <c r="I66" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>121</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ana</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Barnes</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>35759</v>
+      </c>
+      <c r="I67" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>122</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Justin</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Evans</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" t="b">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>36799</v>
+      </c>
+      <c r="I68" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J68" s="3" t="n">
+        <v>45402</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>123</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Zachary</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Cuevas</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" t="b">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>34643</v>
+      </c>
+      <c r="I69" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>124</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Molly</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>32561</v>
+      </c>
+      <c r="I70" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>125</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>29185</v>
+      </c>
+      <c r="I71" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>126</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Brian</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
+      <c r="F72" t="b">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>27620</v>
+      </c>
+      <c r="I72" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>127</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Kendra</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="b">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>35552</v>
+      </c>
+      <c r="I73" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>128</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Roy</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>29823</v>
+      </c>
+      <c r="I74" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>129</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Massey</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>30053</v>
+      </c>
+      <c r="I75" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>130</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Daniel</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Gardner</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
+      <c r="F76" t="b">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>36807</v>
+      </c>
+      <c r="I76" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>131</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Hannah</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Velasquez</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="b">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>35591</v>
+      </c>
+      <c r="I77" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>132</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Justin</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Fritz</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>32733</v>
+      </c>
+      <c r="I78" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>133</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Debra</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Mcdonald</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>28243</v>
+      </c>
+      <c r="I79" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>134</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Garner</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>27719</v>
+      </c>
+      <c r="I80" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>135</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Bailey</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Robertson</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
+      <c r="F81" t="b">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>36049</v>
+      </c>
+      <c r="I81" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J81" s="3" t="n">
+        <v>45689</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>136</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Leslie</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Carter</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
+      <c r="F82" t="b">
+        <v>0</v>
+      </c>
+      <c r="G82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>31947</v>
+      </c>
+      <c r="I82" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>137</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Douglas</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Cook</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="b">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>34849</v>
+      </c>
+      <c r="I83" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>138</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Jeremy</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Shepherd</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="b">
+        <v>0</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>34376</v>
+      </c>
+      <c r="I84" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>139</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Pittman</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
+      <c r="F85" t="b">
+        <v>0</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>35141</v>
+      </c>
+      <c r="I85" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>140</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Kathy</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="b">
+        <v>0</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>37631</v>
+      </c>
+      <c r="I86" s="3" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>141</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="b">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>30382</v>
+      </c>
+      <c r="I87" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>142</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Mathew</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
+      <c r="F88" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>38733</v>
+      </c>
+      <c r="I88" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>143</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Wendy</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Chavez</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" t="b">
+        <v>0</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>27447</v>
+      </c>
+      <c r="I89" s="3" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>144</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Nathan</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="b">
+        <v>0</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>38000</v>
+      </c>
+      <c r="I90" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J90" s="3" t="n">
+        <v>45757</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>145</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Harry</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Little</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" t="b">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>30844</v>
+      </c>
+      <c r="I91" s="3" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>146</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Christopher</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>37196</v>
+      </c>
+      <c r="I92" s="3" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>147</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Larry</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Gibbs</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" t="b">
+        <v>1</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>28559</v>
+      </c>
+      <c r="I93" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>L10</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>148</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Ronald</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Smith</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" t="b">
+        <v>0</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>37108</v>
+      </c>
+      <c r="I94" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>L04</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>149</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Mcdowell</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
+      <c r="F95" t="b">
+        <v>0</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>30330</v>
+      </c>
+      <c r="I95" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>150</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Nelson</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>34531</v>
+      </c>
+      <c r="I96" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>151</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Buckley</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
+      <c r="F97" t="b">
+        <v>0</v>
+      </c>
+      <c r="G97" t="b">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>35386</v>
+      </c>
+      <c r="I97" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>152</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Brooks</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="b">
+        <v>1</v>
+      </c>
+      <c r="G98" t="b">
+        <v>0</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>30349</v>
+      </c>
+      <c r="I98" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>L05</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>153</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Brittany</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Tanner</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="b">
+        <v>0</v>
+      </c>
+      <c r="G99" t="b">
+        <v>0</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>34828</v>
+      </c>
+      <c r="I99" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>L02</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>154</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Julia</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" t="b">
+        <v>0</v>
+      </c>
+      <c r="G100" t="b">
+        <v>0</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>37402</v>
+      </c>
+      <c r="I100" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>155</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Michael</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Zimmerman</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="b">
+        <v>0</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>36990</v>
+      </c>
+      <c r="I101" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>156</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Mitchell</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" t="b">
+        <v>1</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>30033</v>
+      </c>
+      <c r="I102" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>157</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Klein</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="b">
+        <v>0</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>35769</v>
+      </c>
+      <c r="I103" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>158</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Patel</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
+      <c r="F104" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>36702</v>
+      </c>
+      <c r="I104" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>159</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Deleon</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="b">
+        <v>0</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>38220</v>
+      </c>
+      <c r="I105" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>160</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Malik</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Allen</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="b">
+        <v>0</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>29878</v>
+      </c>
+      <c r="I106" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>161</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>King</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" t="b">
+        <v>0</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>30174</v>
+      </c>
+      <c r="I107" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>162</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Ellen</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Anderson</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>0</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>36992</v>
+      </c>
+      <c r="I108" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>163</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Gentry</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="b">
+        <v>1</v>
+      </c>
+      <c r="G109" t="b">
+        <v>0</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>31572</v>
+      </c>
+      <c r="I109" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>164</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Shawn</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Turner</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="b">
+        <v>1</v>
+      </c>
+      <c r="G110" t="b">
+        <v>0</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>32871</v>
+      </c>
+      <c r="I110" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>165</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Crystal</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Blackburn</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="b">
+        <v>1</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>35828</v>
+      </c>
+      <c r="I111" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>L10</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>166</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Caitlin</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Garcia</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="b">
+        <v>1</v>
+      </c>
+      <c r="G112" t="b">
+        <v>0</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>28485</v>
+      </c>
+      <c r="I112" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>167</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Tricia</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Roberts</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
+      <c r="F113" t="b">
+        <v>1</v>
+      </c>
+      <c r="G113" t="b">
+        <v>0</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>32075</v>
+      </c>
+      <c r="I113" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>168</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Amy</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Cameron</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="b">
+        <v>0</v>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>29127</v>
+      </c>
+      <c r="I114" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>L15</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>169</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>David</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Walker</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" t="b">
+        <v>0</v>
+      </c>
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>37444</v>
+      </c>
+      <c r="I115" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>170</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Mary</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Kirby</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
+      <c r="F116" t="b">
+        <v>0</v>
+      </c>
+      <c r="G116" t="b">
+        <v>0</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>33041</v>
+      </c>
+      <c r="I116" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>171</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Brenda</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
+      <c r="F117" t="b">
+        <v>1</v>
+      </c>
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>34216</v>
+      </c>
+      <c r="I117" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>172</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Ernest</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Terrell</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="b">
+        <v>1</v>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>32393</v>
+      </c>
+      <c r="I118" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>173</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Raymond</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="b">
+        <v>1</v>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>36224</v>
+      </c>
+      <c r="I119" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>174</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>William</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="b">
+        <v>1</v>
+      </c>
+      <c r="G120" t="b">
+        <v>0</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>35453</v>
+      </c>
+      <c r="I120" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>175</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Sean</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Holmes</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>29670</v>
+      </c>
+      <c r="I121" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>176</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Parker</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" t="b">
+        <v>1</v>
+      </c>
+      <c r="G122" t="b">
+        <v>0</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>30047</v>
+      </c>
+      <c r="I122" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>177</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Nicholas</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Williams</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" t="b">
+        <v>1</v>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>34900</v>
+      </c>
+      <c r="I123" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>178</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Steven</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Koch</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" t="b">
+        <v>1</v>
+      </c>
+      <c r="G124" t="b">
+        <v>0</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>31436</v>
+      </c>
+      <c r="I124" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>179</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Nicholas</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Bond</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
+      <c r="F125" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" t="b">
+        <v>0</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>32475</v>
+      </c>
+      <c r="I125" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>180</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Michaela</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Shepherd</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" t="b">
+        <v>0</v>
+      </c>
+      <c r="G126" t="b">
+        <v>1</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>34380</v>
+      </c>
+      <c r="I126" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>181</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Cheryl</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Stewart</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" t="b">
+        <v>0</v>
+      </c>
+      <c r="G127" t="b">
+        <v>0</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>34863</v>
+      </c>
+      <c r="I127" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>L12</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>182</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Robert</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Thomas</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="b">
+        <v>1</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>38244</v>
+      </c>
+      <c r="I128" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>L13</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>183</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Cochran</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="b">
+        <v>0</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>34130</v>
+      </c>
+      <c r="I129" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>L03</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>184</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Jonathan</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Knox</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+      <c r="F130" t="b">
+        <v>0</v>
+      </c>
+      <c r="G130" t="b">
+        <v>1</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>36751</v>
+      </c>
+      <c r="I130" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>185</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Kyle</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Greene</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="b">
+        <v>1</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>38287</v>
+      </c>
+      <c r="I131" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>L11</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>186</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Maria</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Hobbs</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" t="b">
+        <v>0</v>
+      </c>
+      <c r="G132" t="b">
+        <v>1</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>31394</v>
+      </c>
+      <c r="I132" s="3" t="n">
+        <v>45661</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>L14</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>187</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Harrison</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>29696</v>
+      </c>
+      <c r="I133" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>L06</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>188</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Cindy</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Ortiz</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="b">
+        <v>0</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>28495</v>
+      </c>
+      <c r="I134" s="3" t="n">
+        <v>45659</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>L09</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>189</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Marcus</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Strickland</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" t="b">
+        <v>0</v>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>33081</v>
+      </c>
+      <c r="I135" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>L07</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>190</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Brandi</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Robinson</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>29331</v>
+      </c>
+      <c r="I136" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>L08</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>191</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Rebecca</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137" t="b">
+        <v>0</v>
+      </c>
+      <c r="G137" t="b">
+        <v>0</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>33635</v>
+      </c>
+      <c r="I137" s="3" t="n">
+        <v>45660</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
         <is>
           <t>L02</t>
         </is>
